--- a/compilado/excel/template_reporteresolicitud.xlsx
+++ b/compilado/excel/template_reporteresolicitud.xlsx
@@ -42,9 +42,6 @@
     <t>NSN</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Solicitado 2017</t>
+  </si>
+  <si>
+    <t>Repuesto</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -767,7 +767,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -840,19 +840,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="F14" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
